--- a/TestCase/Feed/KG__ERP__IntegrationTestCase__StockIn__2019-09-16__v1.0.0.xlsx
+++ b/TestCase/Feed/KG__ERP__IntegrationTestCase__StockIn__2019-09-16__v1.0.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KGERPDOC\TestCase\Feed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="2"/>
   </bookViews>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -435,12 +440,6 @@
     <t>Total Leave Balance (Earn Leave, Casual Leave)</t>
   </si>
   <si>
-    <t>Apply After Consumed: Both Line manager and HR have to approve then will approved otherwise rejected</t>
-  </si>
-  <si>
-    <t>Employee only can view their Status (Approved / Rejected)</t>
-  </si>
-  <si>
     <t>Non-privileged users are not allowed to access the page</t>
   </si>
   <si>
@@ -498,7 +497,7 @@
     <t>7. Item Type</t>
   </si>
   <si>
-    <t>Apply Before Stored  it will approve by line manager and notify to the HR</t>
+    <t>Apply Before Stored  it will approve by line manager</t>
   </si>
 </sst>
 </file>
@@ -1135,12 +1134,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,32 +1173,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1278,7 +1277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1836,7 +1835,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="32"/>
@@ -2059,8 +2058,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="32"/>
@@ -2091,24 +2090,24 @@
     </row>
     <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="93" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
       <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
@@ -2163,23 +2162,23 @@
     </row>
     <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="106" t="s">
+      <c r="E10" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="105" t="s">
-        <v>116</v>
+      <c r="G10" s="94" t="s">
+        <v>114</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>113</v>
@@ -2195,18 +2194,18 @@
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="108"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="67"/>
@@ -2219,19 +2218,17 @@
     </row>
     <row r="12" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="73" t="s">
-        <v>114</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G12" s="97"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
@@ -2243,19 +2240,17 @@
     </row>
     <row r="13" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="73" t="s">
-        <v>115</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G13" s="97"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -2267,16 +2262,16 @@
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="104"/>
+        <v>130</v>
+      </c>
+      <c r="G14" s="93"/>
       <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
@@ -2288,14 +2283,14 @@
     </row>
     <row r="15" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="65"/>
       <c r="H15" s="67"/>
@@ -2309,14 +2304,14 @@
     </row>
     <row r="16" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="67"/>
@@ -2328,15 +2323,13 @@
       <c r="N16" s="67"/>
       <c r="O16" s="67"/>
     </row>
-    <row r="17" spans="1:16" s="107" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104">
-        <v>8</v>
-      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -2347,8 +2340,8 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
@@ -2362,8 +2355,8 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="98"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
@@ -2377,8 +2370,8 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="99"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="61"/>
       <c r="E20" s="62"/>
       <c r="F20" s="63"/>
@@ -4516,7 +4509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4553,48 +4546,48 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="I1" s="91" t="s">
         <v>118</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="91" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>105</v>
       </c>
       <c r="G3" s="92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
         <v>105</v>
@@ -4602,7 +4595,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
